--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17360</v>
+        <v>17345.52200362984</v>
       </c>
       <c r="C2">
-        <v>36771</v>
+        <v>36844.34838206026</v>
       </c>
       <c r="D2">
-        <v>71346</v>
+        <v>71467.80460595629</v>
       </c>
       <c r="E2">
-        <v>107850</v>
+        <v>108045.3048360338</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>179088</v>
+        <v>179041.9261728243</v>
       </c>
       <c r="C3">
-        <v>331208</v>
+        <v>331912.1271074681</v>
       </c>
       <c r="D3">
-        <v>400936</v>
+        <v>401697.0845889651</v>
       </c>
       <c r="E3">
-        <v>445875</v>
+        <v>446585.6229259858</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19224</v>
+        <v>19208.01336486229</v>
       </c>
       <c r="C4">
-        <v>36193</v>
+        <v>36232.9000462401</v>
       </c>
       <c r="D4">
-        <v>57348</v>
+        <v>57445.15061809097</v>
       </c>
       <c r="E4">
-        <v>74130</v>
+        <v>74280.8662147133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105216</v>
+        <v>105158.923334647</v>
       </c>
       <c r="C6">
-        <v>133529</v>
+        <v>133691.0584462131</v>
       </c>
       <c r="D6">
-        <v>122640</v>
+        <v>122732.2392604157</v>
       </c>
       <c r="E6">
-        <v>100510</v>
+        <v>100599.9492540442</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10865</v>
+        <v>10862.62356895449</v>
       </c>
       <c r="C7">
-        <v>21710</v>
+        <v>21728.6595052552</v>
       </c>
       <c r="D7">
-        <v>23837</v>
+        <v>23891.34993868103</v>
       </c>
       <c r="E7">
-        <v>25956</v>
+        <v>25997.67331348265</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>809190</v>
+        <v>808858.2267282361</v>
       </c>
       <c r="C9">
-        <v>1295112</v>
+        <v>1296964.06854493</v>
       </c>
       <c r="D9">
-        <v>1752370</v>
+        <v>1753991.996364924</v>
       </c>
       <c r="E9">
-        <v>2157210</v>
+        <v>2160121.135333958</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>783644</v>
+        <v>784457.6067301839</v>
       </c>
       <c r="C12">
-        <v>860808</v>
+        <v>862194.0777817733</v>
       </c>
       <c r="D12">
-        <v>713708</v>
+        <v>715143.8465439796</v>
       </c>
       <c r="E12">
-        <v>528360</v>
+        <v>529659.8117886288</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17345.52200362984</v>
+        <v>17293.31582844329</v>
       </c>
       <c r="C2">
-        <v>36844.34838206026</v>
+        <v>36726.88528549496</v>
       </c>
       <c r="D2">
-        <v>71467.80460595629</v>
+        <v>71224.3828619706</v>
       </c>
       <c r="E2">
-        <v>108045.3048360338</v>
+        <v>107670.2337327607</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>179041.9261728243</v>
+        <v>178281.3045911537</v>
       </c>
       <c r="C3">
-        <v>331912.1271074681</v>
+        <v>330406.4617496307</v>
       </c>
       <c r="D3">
-        <v>401697.0845889651</v>
+        <v>399766.8003830157</v>
       </c>
       <c r="E3">
-        <v>446585.6229259858</v>
+        <v>444423.4497564739</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19208.01336486229</v>
+        <v>19233.48227072568</v>
       </c>
       <c r="C4">
-        <v>36232.9000462401</v>
+        <v>36285.01360140937</v>
       </c>
       <c r="D4">
-        <v>57445.15061809097</v>
+        <v>57533.40825870207</v>
       </c>
       <c r="E4">
-        <v>74280.8662147133</v>
+        <v>74393.77400400549</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105158.923334647</v>
+        <v>105080.2470453503</v>
       </c>
       <c r="C6">
-        <v>133691.0584462131</v>
+        <v>133581.9614391574</v>
       </c>
       <c r="D6">
-        <v>122732.2392604157</v>
+        <v>122623.3559007174</v>
       </c>
       <c r="E6">
-        <v>100599.9492540442</v>
+        <v>100510.0403352063</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10862.62356895449</v>
+        <v>10904.88518591169</v>
       </c>
       <c r="C7">
-        <v>21728.6595052552</v>
+        <v>21816.24468065697</v>
       </c>
       <c r="D7">
-        <v>23891.34993868103</v>
+        <v>23992.58362889906</v>
       </c>
       <c r="E7">
-        <v>25997.67331348265</v>
+        <v>26111.88903978551</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>808858.2267282361</v>
+        <v>804710.7867730495</v>
       </c>
       <c r="C9">
-        <v>1296964.06854493</v>
+        <v>1289932.734928935</v>
       </c>
       <c r="D9">
-        <v>1753991.996364924</v>
+        <v>1743934.472884105</v>
       </c>
       <c r="E9">
-        <v>2160121.135333958</v>
+        <v>2147485.423894231</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>784457.6067301839</v>
+        <v>767842.78610101</v>
       </c>
       <c r="C12">
-        <v>862194.0777817733</v>
+        <v>843731.4914802305</v>
       </c>
       <c r="D12">
-        <v>715143.8465439796</v>
+        <v>698694.4640825184</v>
       </c>
       <c r="E12">
-        <v>529659.8117886288</v>
+        <v>516882.2291642242</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Fiets.xlsx
@@ -394,7 +394,7 @@
         <v>36726.88528549496</v>
       </c>
       <c r="D2">
-        <v>71224.3828619706</v>
+        <v>71224.38286197062</v>
       </c>
       <c r="E2">
         <v>107670.2337327607</v>
@@ -414,7 +414,7 @@
         <v>399766.8003830157</v>
       </c>
       <c r="E3">
-        <v>444423.4497564739</v>
+        <v>444423.4497564738</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -428,7 +428,7 @@
         <v>36285.01360140937</v>
       </c>
       <c r="D4">
-        <v>57533.40825870207</v>
+        <v>57533.40825870206</v>
       </c>
       <c r="E4">
         <v>74393.77400400549</v>
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>804710.7867730495</v>
+        <v>804710.7867730497</v>
       </c>
       <c r="C9">
         <v>1289932.734928935</v>
